--- a/data/negative_signals/Indirectly connected (A-X-B) - Atenolol - Bullous eruptions.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Atenolol - Bullous eruptions.xlsx
@@ -191,36 +191,192 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>117527320</t>
+    <t>51329619</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>59996181</t>
+  </si>
+  <si>
+    <t>does not treat</t>
+  </si>
+  <si>
+    <t>51686514</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51329147</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>117906509</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117528252</t>
-  </si>
-  <si>
-    <t>is not administered to</t>
-  </si>
-  <si>
-    <t>126369342</t>
-  </si>
-  <si>
-    <t>does not treat</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
   </si>
   <si>
+    <t>5127262</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>94481550</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>12915165</t>
+  </si>
+  <si>
+    <t>12915089</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>113483617</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>63131630</t>
+  </si>
+  <si>
+    <t>52213725</t>
+  </si>
+  <si>
+    <t>54216638</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>62070850</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>650553</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>57105637</t>
+  </si>
+  <si>
+    <t>78122755</t>
+  </si>
+  <si>
+    <t>590091</t>
+  </si>
+  <si>
+    <t>male population group</t>
+  </si>
+  <si>
+    <t>62231996</t>
+  </si>
+  <si>
+    <t>53887089</t>
+  </si>
+  <si>
+    <t>99578394</t>
+  </si>
+  <si>
+    <t>837528</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>61183947</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>83388969</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>59042402</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>55481596</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>67348646</t>
+  </si>
+  <si>
+    <t>59042782</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>59047801</t>
+  </si>
+  <si>
+    <t>77518898</t>
+  </si>
+  <si>
+    <t>74231788</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>4028517</t>
+  </si>
+  <si>
+    <t>kidney failure, chronic</t>
+  </si>
+  <si>
+    <t>62002157</t>
+  </si>
+  <si>
+    <t>57273052</t>
+  </si>
+  <si>
+    <t>684679</t>
+  </si>
+  <si>
+    <t>infant, newborn</t>
+  </si>
+  <si>
+    <t>56765463</t>
+  </si>
+  <si>
+    <t>55517824</t>
+  </si>
+  <si>
     <t>5648228</t>
   </si>
   <si>
@@ -230,211 +386,55 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>128688369</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>119249040</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>117654980</t>
+    <t>51465169</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>120202268</t>
-  </si>
-  <si>
-    <t>159784893</t>
+    <t>93618512</t>
   </si>
   <si>
     <t>is method of</t>
   </si>
   <si>
-    <t>120095415</t>
-  </si>
-  <si>
-    <t>132627110</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>159784837</t>
-  </si>
-  <si>
-    <t>153076882</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>180916043</t>
+    <t>52976863</t>
+  </si>
+  <si>
+    <t>86647060</t>
+  </si>
+  <si>
+    <t>93618432</t>
+  </si>
+  <si>
+    <t>66243400</t>
+  </si>
+  <si>
+    <t>114703287</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>120997753</t>
+    <t>51546392</t>
+  </si>
+  <si>
+    <t>62232418</t>
+  </si>
+  <si>
+    <t>53882544</t>
+  </si>
+  <si>
+    <t>58313013</t>
   </si>
   <si>
     <t>precedes</t>
   </si>
   <si>
-    <t>117689342</t>
-  </si>
-  <si>
-    <t>132508592</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>118472142</t>
-  </si>
-  <si>
-    <t>129588478</t>
-  </si>
-  <si>
-    <t>120547375</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>128523326</t>
-  </si>
-  <si>
-    <t>136332181</t>
-  </si>
-  <si>
-    <t>650553</t>
-  </si>
-  <si>
-    <t>infant</t>
-  </si>
-  <si>
-    <t>123515543</t>
-  </si>
-  <si>
-    <t>144464660</t>
-  </si>
-  <si>
-    <t>590091</t>
-  </si>
-  <si>
-    <t>male population group</t>
-  </si>
-  <si>
-    <t>120241940</t>
-  </si>
-  <si>
-    <t>127833009</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>4028517</t>
-  </si>
-  <si>
-    <t>kidney failure, chronic</t>
-  </si>
-  <si>
-    <t>128343879</t>
-  </si>
-  <si>
-    <t>123657506</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>837528</t>
-  </si>
-  <si>
-    <t>captopril</t>
-  </si>
-  <si>
-    <t>130788056</t>
-  </si>
-  <si>
-    <t>149764566</t>
-  </si>
-  <si>
-    <t>125451666</t>
-  </si>
-  <si>
-    <t>127593425</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>125455854</t>
-  </si>
-  <si>
-    <t>125451024</t>
-  </si>
-  <si>
-    <t>143862283</t>
-  </si>
-  <si>
-    <t>117841797</t>
-  </si>
-  <si>
-    <t>140613064</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>684679</t>
-  </si>
-  <si>
-    <t>infant, newborn</t>
-  </si>
-  <si>
-    <t>123134481</t>
-  </si>
-  <si>
-    <t>122056665</t>
-  </si>
-  <si>
-    <t>5127262</t>
-  </si>
-  <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>79289525</t>
-  </si>
-  <si>
-    <t>79289450</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>160715196</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>179706364</t>
+    <t>57517899</t>
+  </si>
+  <si>
+    <t>66163822</t>
   </si>
   <si>
     <t>4033983</t>
@@ -443,64 +443,64 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>128844666</t>
+    <t>118414333</t>
+  </si>
+  <si>
+    <t>62459228</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>174443288</t>
-  </si>
-  <si>
-    <t>140011648</t>
-  </si>
-  <si>
-    <t>120203397</t>
-  </si>
-  <si>
-    <t>125630130</t>
-  </si>
-  <si>
-    <t>126874318</t>
+    <t>73539111</t>
+  </si>
+  <si>
+    <t>66875191</t>
+  </si>
+  <si>
+    <t>52664756</t>
+  </si>
+  <si>
+    <t>60484353</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>140257658</t>
-  </si>
-  <si>
-    <t>126683789</t>
-  </si>
-  <si>
-    <t>149820462</t>
+    <t>56457796</t>
+  </si>
+  <si>
+    <t>90375608</t>
+  </si>
+  <si>
+    <t>83441981</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
-    <t>156531085</t>
-  </si>
-  <si>
-    <t>146587764</t>
-  </si>
-  <si>
-    <t>122847263</t>
-  </si>
-  <si>
-    <t>118916562</t>
-  </si>
-  <si>
-    <t>133218177</t>
-  </si>
-  <si>
-    <t>184555441</t>
-  </si>
-  <si>
-    <t>122493699</t>
-  </si>
-  <si>
-    <t>142812784</t>
+    <t>56114347</t>
+  </si>
+  <si>
+    <t>80208393</t>
+  </si>
+  <si>
+    <t>53884864</t>
+  </si>
+  <si>
+    <t>59235473</t>
+  </si>
+  <si>
+    <t>60306242</t>
+  </si>
+  <si>
+    <t>73932652</t>
+  </si>
+  <si>
+    <t>108250683</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>837644</t>
@@ -509,10 +509,10 @@
     <t>lupus erythematosus</t>
   </si>
   <si>
-    <t>161840976</t>
-  </si>
-  <si>
-    <t>132419822</t>
+    <t>95637176</t>
+  </si>
+  <si>
+    <t>66026027</t>
   </si>
   <si>
     <t>5131040</t>
@@ -521,10 +521,10 @@
     <t>pulmonary edema</t>
   </si>
   <si>
-    <t>175760288</t>
-  </si>
-  <si>
-    <t>121833297</t>
+    <t>109582316</t>
+  </si>
+  <si>
+    <t>55291627</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -809,7 +809,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -821,82 +821,28 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>73</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
         <v>74</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>75</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>76</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>77</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -913,10 +859,10 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -931,19 +877,19 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
         <v>68</v>
@@ -963,10 +909,10 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
@@ -981,13 +927,13 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
         <v>68</v>
@@ -1007,10 +953,10 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1025,13 +971,13 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
         <v>68</v>
@@ -1039,7 +985,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1051,10 +997,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
@@ -1069,19 +1015,19 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
@@ -1101,13 +1047,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1119,21 +1065,63 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1145,13 +1133,13 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
@@ -1163,58 +1151,16 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>120</v>
-      </c>
-      <c r="P9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s">
-        <v>124</v>
-      </c>
-      <c r="V9" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s">
-        <v>125</v>
-      </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1231,10 +1177,10 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
@@ -1249,13 +1195,13 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N10" t="s">
         <v>68</v>
@@ -1275,13 +1221,13 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -1293,28 +1239,82 @@
         <v>58</v>
       </c>
       <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U11" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" t="s">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s">
         <v>135</v>
       </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="AB11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC11" t="s">
         <v>136</v>
       </c>
-      <c r="N11" t="s">
+      <c r="AD11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE11" t="s">
         <v>137</v>
       </c>
-      <c r="O11" t="s">
+      <c r="AF11" t="s">
         <v>138</v>
       </c>
-      <c r="P11" t="s">
+      <c r="AG11" t="s">
         <v>139</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="AH11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI11" t="s">
         <v>140</v>
       </c>
-      <c r="R11" t="s">
-        <v>83</v>
+      <c r="AJ11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -1352,31 +1352,31 @@
         <v>143</v>
       </c>
       <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>145</v>
-      </c>
-      <c r="N12" t="s">
-        <v>144</v>
       </c>
       <c r="O12" t="s">
         <v>146</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
         <v>147</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
         <v>148</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="U12" t="s">
         <v>149</v>
@@ -1388,13 +1388,13 @@
         <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s">
         <v>152</v>
       </c>
       <c r="Z12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AA12" t="s">
         <v>153</v>
@@ -1406,7 +1406,7 @@
         <v>155</v>
       </c>
       <c r="AD12" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="AE12" t="s">
         <v>156</v>
@@ -1418,37 +1418,37 @@
         <v>157</v>
       </c>
       <c r="AH12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s">
         <v>158</v>
       </c>
       <c r="AJ12" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s">
         <v>159</v>
       </c>
       <c r="AL12" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AM12" t="s">
         <v>160</v>
       </c>
       <c r="AN12" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="AO12" t="s">
         <v>161</v>
       </c>
       <c r="AP12" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="AQ12" t="s">
         <v>162</v>
       </c>
       <c r="AR12" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1486,13 +1486,13 @@
         <v>165</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
         <v>166</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1530,13 +1530,13 @@
         <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M14" t="s">
         <v>170</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
